--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.53102642608636</v>
+        <v>41.1743708687662</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2149999141693115</v>
+        <v>0.1019999980926514</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.27102642608635</v>
+        <v>41.1743708687662</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.26000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.33845519167734</v>
+        <v>24.2895687428924</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16.84131356415361</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.18025400884752</v>
+        <v>21.61595173195235</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.68109939842174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8559999999998</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>138.4940000000013</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>51.12200000000072</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>68.54499999999916</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>135.7979999999989</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>103.8559999999998</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>138.4940000000024</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>135.7979999999989</v>
+        <v>125.6</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
